--- a/examples/palabra/lab4/lab4_result.xlsx
+++ b/examples/palabra/lab4/lab4_result.xlsx
@@ -5699,7 +5699,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r1</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r2</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r2</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5733,7 +5733,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r1</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5750,7 +5750,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r2</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r2</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5767,7 +5767,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r1</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r2</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r2</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
